--- a/bh3/549391622145897687_2021-07-20_12-00-05.xlsx
+++ b/bh3/549391622145897687_2021-07-20_12-00-05.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9398,7 +9398,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9710,11 +9710,11 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9935,7 +9935,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10848,7 +10848,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10994,7 +10994,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12913,7 +12913,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -13164,7 +13164,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -13319,7 +13319,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13390,7 +13390,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13764,7 +13764,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13985,7 +13985,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -14052,7 +14052,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14197,7 +14197,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14264,7 +14264,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14677,11 +14677,11 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -15049,7 +15049,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -15270,7 +15270,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -16512,7 +16512,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -17293,7 +17293,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17494,7 +17494,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -18355,7 +18355,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18509,7 +18509,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18585,7 +18585,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -19162,7 +19162,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19237,7 +19237,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -19316,7 +19316,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19608,7 +19608,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19821,7 +19821,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -20196,7 +20196,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20705,7 +20705,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20780,7 +20780,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20922,7 +20922,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -21077,7 +21077,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -21227,7 +21227,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21294,7 +21294,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21513,7 +21513,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21738,7 +21738,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21809,7 +21809,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21967,7 +21967,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -22181,7 +22181,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22315,7 +22315,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22394,7 +22394,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22771,7 +22771,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22842,7 +22842,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -23070,7 +23070,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -23303,7 +23303,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23453,7 +23453,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23532,7 +23532,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23686,7 +23686,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -24278,7 +24278,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24349,7 +24349,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -24428,7 +24428,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -24657,7 +24657,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -24736,7 +24736,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -24886,7 +24886,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -25036,7 +25036,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -25108,7 +25108,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -25401,7 +25401,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25630,7 +25630,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -25705,7 +25705,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25776,11 +25776,11 @@
         </is>
       </c>
       <c r="I345" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25859,7 +25859,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -26072,7 +26072,7 @@
         </is>
       </c>
       <c r="I349" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J349" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26721,11 +26721,11 @@
         </is>
       </c>
       <c r="I358" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -27155,11 +27155,11 @@
         </is>
       </c>
       <c r="I364" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -27724,11 +27724,11 @@
         </is>
       </c>
       <c r="I372" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27945,7 +27945,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -28095,7 +28095,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -28450,7 +28450,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28592,7 +28592,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -29026,7 +29026,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -29101,7 +29101,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -29168,7 +29168,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29247,7 +29247,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -29314,7 +29314,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29385,7 +29385,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -29464,7 +29464,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -29539,7 +29539,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29618,7 +29618,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29760,7 +29760,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29985,7 +29985,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -30056,7 +30056,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -30123,7 +30123,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30198,11 +30198,11 @@
         </is>
       </c>
       <c r="I406" t="n">
-        <v>1882</v>
+        <v>1893</v>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -30428,7 +30428,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30499,7 +30499,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30578,7 +30578,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30653,7 +30653,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -31029,11 +31029,11 @@
         </is>
       </c>
       <c r="I417" t="n">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -31108,7 +31108,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -31479,7 +31479,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -31629,7 +31629,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -32000,7 +32000,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -32430,7 +32430,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -32588,7 +32588,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">

--- a/bh3/549391622145897687_2021-07-20_12-00-05.xlsx
+++ b/bh3/549391622145897687_2021-07-20_12-00-05.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-28 02:13:47</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44405.09290509259</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:08:18</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44403.42243055555</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>4989309417</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:35:18</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44402.81618055556</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -748,10 +758,8 @@
           <t>4950069625</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:32:10</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44402.81400462963</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -811,10 +819,8 @@
           <t>4949973842</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:30:57</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44402.81315972222</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -874,10 +880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-24 15:09:36</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44401.63166666667</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -949,10 +953,8 @@
           <t>4961180201</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-23 12:39:31</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44400.52744212963</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -1024,10 +1026,8 @@
           <t>4961180201</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-23 12:28:10</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44400.51956018519</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1095,10 +1095,8 @@
           <t>4955045332</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-23 04:16:25</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44400.17806712963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1174,10 +1172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:21:32</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44399.93162037037</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1245,10 +1241,8 @@
           <t>4966281802</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-22 17:08:35</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44399.71429398148</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1316,10 +1310,8 @@
           <t>4953163209</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-22 09:03:21</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44399.37732638889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1387,10 +1379,8 @@
           <t>4953163209</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:28:05</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44399.35283564815</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1466,10 +1456,8 @@
           <t>4963308522</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-22 07:57:16</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44399.33143518519</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1545,10 +1533,8 @@
           <t>4961180201</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-22 07:23:22</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44399.30789351852</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1620,10 +1606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-22 02:35:13</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44399.10778935185</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1683,10 +1667,8 @@
           <t>4961180201</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:19:04</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44398.97157407407</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1754,10 +1736,8 @@
           <t>4961180201</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:05:05</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44398.96186342592</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1821,10 +1801,8 @@
           <t>4961180201</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:46:20</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44398.90717592592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1896,10 +1874,8 @@
           <t>4961180201</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:46:12</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44398.90708333333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1971,10 +1947,8 @@
           <t>4961180201</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:43:43</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44398.9053587963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2042,10 +2016,8 @@
           <t>4961178486</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:43:22</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44398.90511574074</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2117,10 +2089,8 @@
           <t>4961180201</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:43:08</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44398.90495370371</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2192,10 +2162,8 @@
           <t>4952087299</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:22:12</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44398.89041666667</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2271,10 +2239,8 @@
           <t>4952087299</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:08:53</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44398.88116898148</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2338,10 +2304,8 @@
           <t>4952087299</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:58:59</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44398.87429398148</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2417,10 +2381,8 @@
           <t>4957606591</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:32:19</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44398.52244212963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2488,10 +2450,8 @@
           <t>4955773112</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:20:17</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44398.51408564814</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2563,10 +2523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:05:06</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44398.50354166667</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2626,10 +2584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:34:40</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44398.48240740741</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2705,10 +2661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:34:09</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44398.44038194444</v>
       </c>
       <c r="I32" t="n">
         <v>7</v>
@@ -2776,10 +2730,8 @@
           <t>4956561177</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:49:39</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44398.40947916666</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2847,10 +2799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:46:02</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44398.40696759259</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -2922,10 +2872,8 @@
           <t>4956561177</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:45:44</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44398.40675925926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2993,10 +2941,8 @@
           <t>4956561177</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:31:44</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44398.39703703704</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3065,10 +3011,8 @@
           <t>4956561177</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:30:03</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44398.39586805556</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3136,10 +3080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:18:09</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44398.38760416667</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3207,10 +3149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-21 07:45:32</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44398.32328703703</v>
       </c>
       <c r="I39" t="n">
         <v>10</v>
@@ -3283,10 +3223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-21 07:44:14</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44398.32238425926</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -3356,10 +3294,8 @@
           <t>4955773112</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-21 03:15:29</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44398.13575231482</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3423,10 +3359,8 @@
           <t>4955772001</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-21 03:13:28</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44398.13435185186</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3490,10 +3424,8 @@
           <t>4955523223</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:35:17</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44398.06616898148</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3569,10 +3501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:34:26</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44398.0655787037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3648,10 +3578,8 @@
           <t>4955384226</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:02:40</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44398.04351851852</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3715,10 +3643,8 @@
           <t>4955241137</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:34:41</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44398.02408564815</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3782,10 +3708,8 @@
           <t>4955188734</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:26:37</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44398.0184837963</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3857,10 +3781,8 @@
           <t>4955139375</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:19:30</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44398.01354166667</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3928,10 +3850,8 @@
           <t>4955045332</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:04:23</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44398.00304398148</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4007,10 +3927,8 @@
           <t>4954976719</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:54:26</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44397.99613425926</v>
       </c>
       <c r="I50" t="n">
         <v>7</v>
@@ -4082,10 +4000,8 @@
           <t>4953394939</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:50:38</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44397.99349537037</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4163,10 +4079,8 @@
           <t>4953394939</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:50:29</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44397.9933912037</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4244,10 +4158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:47:25</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44397.99126157408</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -4311,10 +4223,8 @@
           <t>4954816580</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:33:04</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44397.9812962963</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4384,10 +4294,8 @@
           <t>4954712453</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:20:37</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44397.97265046297</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4463,10 +4371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:49:05</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44397.95075231481</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4534,10 +4440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:47:32</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44397.94967592593</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4605,10 +4509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:41:24</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44397.94541666667</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -4680,10 +4582,8 @@
           <t>4951072596</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:39:00</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44397.94375</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4759,10 +4659,8 @@
           <t>4954363580</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:38:45</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44397.94357638889</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4838,10 +4736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:37:17</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44397.94255787037</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4909,10 +4805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:35:15</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44397.94114583333</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4980,10 +4874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:23:18</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44397.93284722222</v>
       </c>
       <c r="I63" t="n">
         <v>15</v>
@@ -5051,10 +4943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:14:47</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44397.92693287037</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5122,10 +5012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:06:19</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44397.92105324074</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5201,10 +5089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:02:26</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44397.91835648148</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5264,10 +5150,8 @@
           <t>4952087299</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:59:55</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44397.91660879629</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5335,10 +5219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:53:25</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44397.91209490741</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5403,10 +5285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:49:12</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44397.90916666666</v>
       </c>
       <c r="I69" t="n">
         <v>7</v>
@@ -5470,10 +5350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:49:04</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44397.90907407407</v>
       </c>
       <c r="I70" t="n">
         <v>30</v>
@@ -5549,10 +5427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:45:39</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44397.90670138889</v>
       </c>
       <c r="I71" t="n">
         <v>5</v>
@@ -5616,10 +5492,8 @@
           <t>4952087299</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:41:27</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44397.90378472222</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5695,10 +5569,8 @@
           <t>4953870513</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:37:41</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44397.90116898148</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -5770,10 +5642,8 @@
           <t>4953394939</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:27:43</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44397.89424768519</v>
       </c>
       <c r="I74" t="n">
         <v>5</v>
@@ -5842,10 +5712,8 @@
           <t>4953394939</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:24:51</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44397.89225694445</v>
       </c>
       <c r="I75" t="n">
         <v>10</v>
@@ -5914,10 +5782,8 @@
           <t>4951072596</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:24:33</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44397.89204861111</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5993,10 +5859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:11:04</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44397.88268518518</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6056,10 +5920,8 @@
           <t>4953617014</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:06:42</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44397.87965277778</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6127,10 +5989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:58:08</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44397.87370370371</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6198,10 +6058,8 @@
           <t>4953394939</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:49:12</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44397.8675</v>
       </c>
       <c r="I80" t="n">
         <v>5</v>
@@ -6265,10 +6123,8 @@
           <t>4953394939</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:39:17</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44397.86061342592</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6346,10 +6202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:33:51</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44397.85684027777</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6417,10 +6271,8 @@
           <t>4953163209</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:07:54</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44397.83881944444</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6492,10 +6344,8 @@
           <t>4953087870</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:58:03</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44397.83197916667</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6563,10 +6413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:49:28</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44397.82601851852</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6630,10 +6478,8 @@
           <t>4953003794</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:46:54</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44397.82423611111</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6697,10 +6543,8 @@
           <t>4952707174</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:07:52</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44397.79712962963</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -6778,10 +6622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:40:54</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44397.77840277777</v>
       </c>
       <c r="I88" t="n">
         <v>11</v>
@@ -6845,10 +6687,8 @@
           <t>4952473840</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:38:23</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44397.7766550926</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6908,10 +6748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:35:16</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44397.77449074074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6979,10 +6817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:24:49</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44397.76723379629</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7046,10 +6882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:21:44</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44397.76509259259</v>
       </c>
       <c r="I92" t="n">
         <v>5</v>
@@ -7117,10 +6951,8 @@
           <t>4952330917</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:19:02</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44397.76321759259</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7196,10 +7028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:13:22</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44397.75928240741</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7275,10 +7105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:12:40</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44397.75879629629</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -7342,10 +7170,8 @@
           <t>4952189569</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:00:48</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44397.75055555555</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7409,10 +7235,8 @@
           <t>152931461</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:59:46</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44397.74983796296</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7488,10 +7312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:53:54</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44397.74576388889</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7555,10 +7377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:49:51</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44397.74295138889</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7626,10 +7446,8 @@
           <t>4952115922</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:48:31</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44397.74202546296</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7705,10 +7523,8 @@
           <t>152931461</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:48:16</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44397.74185185185</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -7777,10 +7593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:48:07</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44397.74174768518</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7856,10 +7670,8 @@
           <t>4952095246</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:45:54</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44397.74020833334</v>
       </c>
       <c r="I103" t="n">
         <v>4</v>
@@ -7933,10 +7745,8 @@
           <t>4952087299</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:44:41</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44397.73936342593</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -8006,10 +7816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:44:17</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44397.73908564815</v>
       </c>
       <c r="I105" t="n">
         <v>10</v>
@@ -8073,10 +7881,8 @@
           <t>152931461</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:30:19</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44397.72938657407</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8144,10 +7950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:24:41</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44397.72547453704</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8215,10 +8019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:21:29</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44397.72325231481</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8286,10 +8088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:14:00</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44397.71805555555</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8365,10 +8165,8 @@
           <t>4951847314</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-20 17:08:48</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44397.71444444444</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8436,10 +8234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:55:39</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44397.7053125</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8507,10 +8303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:48:32</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44397.70037037037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8578,10 +8372,8 @@
           <t>152931461</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:47:00</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44397.69930555556</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8649,10 +8441,8 @@
           <t>152931461</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:46:06</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44397.69868055556</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8720,10 +8510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:42:31</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44397.69619212963</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8799,10 +8587,8 @@
           <t>4951672435</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:40:29</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44397.69478009259</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8870,10 +8656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:31:23</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44397.68846064815</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8938,10 +8722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:26:17</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44397.68491898148</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9013,10 +8795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-20 16:04:43</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44397.66994212963</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9088,10 +8868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:55:39</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44397.66364583333</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9167,10 +8945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:55:35</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44397.66359953704</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9242,10 +9018,8 @@
           <t>4951072596</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:54:40</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44397.66296296296</v>
       </c>
       <c r="I122" t="n">
         <v>8</v>
@@ -9317,10 +9091,8 @@
           <t>4951390730</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:50:26</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44397.66002314815</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9388,10 +9160,8 @@
           <t>4951351814</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:43:59</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44397.65554398148</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -9467,10 +9237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:26:08</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44397.64314814815</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9538,10 +9306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:13:39</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44397.63447916666</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9619,10 +9385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:10:55</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44397.63258101852</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9704,10 +9468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:07:25</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44397.63015046297</v>
       </c>
       <c r="I128" t="n">
         <v>208</v>
@@ -9771,10 +9533,8 @@
           <t>4951148369</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:06:31</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44397.62952546297</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9850,10 +9610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:05:54</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44397.62909722222</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9925,10 +9683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-20 15:04:55</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44397.62841435185</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10004,10 +9760,8 @@
           <t>4950381990</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:55:09</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44397.62163194444</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10079,10 +9833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:53:05</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44397.62019675926</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10154,10 +9906,8 @@
           <t>4951072596</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:52:16</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44397.61962962963</v>
       </c>
       <c r="I134" t="n">
         <v>12</v>
@@ -10233,10 +9983,8 @@
           <t>4951063930</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:51:55</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44397.61938657407</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10315,10 +10063,8 @@
           <t>4951054433</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:49:35</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44397.6177662037</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10397,10 +10143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:48:34</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44397.61706018518</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10479,10 +10223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:44:52</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44397.61449074074</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10550,10 +10292,8 @@
           <t>4951027145</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:43:47</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44397.61373842593</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10621,10 +10361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:35:42</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44397.608125</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10700,10 +10438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:33:39</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44397.60670138889</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10767,10 +10503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:31:44</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44397.60537037037</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10838,10 +10572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:27:59</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44397.6027662037</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10909,10 +10641,8 @@
           <t>4950933020</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:27:39</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44397.60253472222</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10984,10 +10714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:25:18</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44397.60090277778</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11055,10 +10783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:22:55</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44397.59924768518</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11122,10 +10848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:18:14</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44397.59599537037</v>
       </c>
       <c r="I147" t="n">
         <v>17</v>
@@ -11197,10 +10921,8 @@
           <t>4950877662</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:17:26</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44397.59543981482</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11276,10 +10998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:16:07</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44397.59452546296</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11355,10 +11075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:15:24</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44397.59402777778</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11426,10 +11144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:13:18</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44397.59256944444</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11497,10 +11213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:13:07</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44397.59244212963</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11564,10 +11278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:12:15</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44397.59184027778</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11643,10 +11355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:12:10</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44397.59178240741</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11722,10 +11432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:10:23</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44397.59054398148</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11801,10 +11509,8 @@
           <t>4950838280</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:09:56</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44397.59023148148</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11868,10 +11574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:08:36</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44397.58930555556</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11944,10 +11648,8 @@
           <t>4950826657</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:08:32</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44397.58925925926</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12012,10 +11714,8 @@
           <t>4950796221</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:02:50</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44397.58530092592</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12079,10 +11779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:02:45</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44397.58524305555</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12159,10 +11857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:02:15</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44397.58489583333</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12226,10 +11922,8 @@
           <t>4950779728</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:00:40</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44397.5837962963</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12305,10 +11999,8 @@
           <t>4950785078</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:00:35</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44397.58373842593</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12384,10 +12076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:00:16</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44397.58351851852</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12447,10 +12137,8 @@
           <t>4950774049</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:00:04</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44397.58337962963</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12518,10 +12206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:57:47</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44397.58179398148</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12597,10 +12283,8 @@
           <t>4950761186</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:56:26</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44397.58085648148</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12668,10 +12352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:55:17</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44397.58005787037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12747,10 +12429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:54:41</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44397.5796412037</v>
       </c>
       <c r="I169" t="n">
         <v>5</v>
@@ -12814,10 +12494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:51:35</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44397.57748842592</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12903,10 +12581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:48:19</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44397.5752199074</v>
       </c>
       <c r="I171" t="n">
         <v>3</v>
@@ -13011,10 +12687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:47:36</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44397.57472222222</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13078,10 +12752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:47:02</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44397.5743287037</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13154,10 +12826,8 @@
           <t>4950681890</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:44:01</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44397.57223379629</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13234,10 +12904,8 @@
           <t>4950690092</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:43:54</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44397.57215277778</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13309,10 +12977,8 @@
           <t>4950657301</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:42:05</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44397.5708912037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13380,10 +13046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:41:18</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44397.57034722222</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13455,10 +13119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:40:50</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44397.57002314815</v>
       </c>
       <c r="I178" t="n">
         <v>217</v>
@@ -13530,10 +13192,8 @@
           <t>4950657301</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:39:54</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44397.569375</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13603,10 +13263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:38:38</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44397.56849537037</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13674,10 +13332,8 @@
           <t>4950639992</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:38:13</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44397.56820601852</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13754,10 +13410,8 @@
           <t>4950128298</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:37:56</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44397.56800925926</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13833,10 +13487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:37:28</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44397.56768518518</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13904,10 +13556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:36:43</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44397.56716435185</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13975,10 +13625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:35:20</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44397.5662037037</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14042,10 +13690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:35:15</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44397.56614583333</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14113,10 +13759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:34:57</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44397.5659375</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14187,10 +13831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:32:29</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44397.56422453704</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -14254,10 +13896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:32:28</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44397.56421296296</v>
       </c>
       <c r="I189" t="n">
         <v>5</v>
@@ -14325,10 +13965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:32:13</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44397.56403935186</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14392,10 +14030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:32:07</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44397.56396990741</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14466,10 +14102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:31:59</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44397.56387731482</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14533,10 +14167,8 @@
           <t>4950598250</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:30:30</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44397.56284722222</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14600,10 +14232,8 @@
           <t>4950381990</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:29:19</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44397.56202546296</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14671,10 +14301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:23:07</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44397.55771990741</v>
       </c>
       <c r="I195" t="n">
         <v>42</v>
@@ -14751,10 +14379,8 @@
           <t>4950381990</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:17:53</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44397.55408564815</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14818,10 +14444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:12:56</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44397.55064814815</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14889,10 +14513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:12:31</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44397.5503587963</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14968,10 +14590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:11:16</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44397.54949074074</v>
       </c>
       <c r="I199" t="n">
         <v>2</v>
@@ -15039,10 +14659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:10:49</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44397.54917824074</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -15110,10 +14728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:10:25</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44397.54890046296</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15181,10 +14797,8 @@
           <t>4950455830</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:08:24</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44397.5475</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15260,10 +14874,8 @@
           <t>4950184833</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:07:01</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44397.54653935185</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15335,10 +14947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:06:57</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44397.54649305555</v>
       </c>
       <c r="I204" t="n">
         <v>5</v>
@@ -15402,10 +15012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:06:46</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44397.54636574074</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15473,10 +15081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:06:20</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44397.54606481481</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15540,10 +15146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:06:09</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44397.5459375</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15619,10 +15223,8 @@
           <t>4950440364</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:06:09</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44397.5459375</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15694,10 +15296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:05:39</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44397.54559027778</v>
       </c>
       <c r="I209" t="n">
         <v>15</v>
@@ -15775,10 +15375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:04:01</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44397.54445601852</v>
       </c>
       <c r="I210" t="n">
         <v>50</v>
@@ -15850,10 +15448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:02:50</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44397.54363425926</v>
       </c>
       <c r="I211" t="n">
         <v>5</v>
@@ -15926,10 +15522,8 @@
           <t>4950410753</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:02:16</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44397.54324074074</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15993,10 +15587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:02:04</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44397.54310185185</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16068,10 +15660,8 @@
           <t>4950147224</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:00:55</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44397.54230324074</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16143,10 +15733,8 @@
           <t>4950393628</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:00:51</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44397.54225694444</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16222,10 +15810,8 @@
           <t>4950395997</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:00:27</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44397.54197916666</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16297,10 +15883,8 @@
           <t>4949973842</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:59:42</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44397.54145833333</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16368,10 +15952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:59:10</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44397.54108796296</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16435,10 +16017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:59:00</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44397.54097222222</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16502,10 +16082,8 @@
           <t>4950381990</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:58:50</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44397.54085648148</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -16573,10 +16151,8 @@
           <t>4950380484</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:58:14</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44397.54043981482</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16644,10 +16220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:57:36</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44397.54</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16715,10 +16289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:54:08</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44397.53759259259</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16790,10 +16362,8 @@
           <t>4950343450</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:53:38</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44397.53724537037</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16861,10 +16431,8 @@
           <t>4950147224</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:52:09</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44397.53621527777</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16924,10 +16492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:51:11</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44397.53554398148</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16991,10 +16557,8 @@
           <t>4950330344</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:50:52</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44397.53532407407</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17070,10 +16634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:48:32</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44397.5337037037</v>
       </c>
       <c r="I228" t="n">
         <v>7</v>
@@ -17149,10 +16711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:48:28</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44397.53365740741</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17216,10 +16776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:47:53</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44397.53325231482</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17283,10 +16841,8 @@
           <t>4950303108</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:47:51</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44397.53322916666</v>
       </c>
       <c r="I231" t="n">
         <v>3</v>
@@ -17350,10 +16906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:47:24</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44397.53291666666</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17413,10 +16967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:47:12</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44397.53277777778</v>
       </c>
       <c r="I233" t="n">
         <v>5</v>
@@ -17484,10 +17036,8 @@
           <t>4950055036</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:46:31</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44397.53230324074</v>
       </c>
       <c r="I234" t="n">
         <v>9</v>
@@ -17555,10 +17105,8 @@
           <t>4950289523</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:46:21</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44397.5321875</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17622,10 +17170,8 @@
           <t>4950284204</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:45:59</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44397.53193287037</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17697,10 +17243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:45:16</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44397.53143518518</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17813,10 +17357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:45:03</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44397.53128472222</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
@@ -17880,10 +17422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:44:42</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44397.53104166667</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17969,10 +17509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:44:34</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44397.53094907408</v>
       </c>
       <c r="I240" t="n">
         <v>7</v>
@@ -18036,10 +17574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:44:11</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44397.53068287037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18115,10 +17651,8 @@
           <t>4950221024</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:44:02</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44397.53057870371</v>
       </c>
       <c r="I242" t="n">
         <v>4</v>
@@ -18199,10 +17733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:41:37</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44397.52890046296</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18266,10 +17798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:41:13</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44397.52862268518</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -18345,10 +17875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:41:13</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44397.52862268518</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18424,10 +17952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:39:29</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44397.52741898148</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18499,10 +18025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:39:06</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44397.52715277778</v>
       </c>
       <c r="I247" t="n">
         <v>128</v>
@@ -18575,10 +18099,8 @@
           <t>4949973842</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:37:59</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44397.52637731482</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18642,10 +18164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:37:58</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44397.52636574074</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18709,10 +18229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:37:39</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44397.52614583333</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18784,10 +18302,8 @@
           <t>4950225157</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:37:03</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44397.52572916666</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18859,10 +18375,8 @@
           <t>4950221024</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:36:56</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44397.52564814815</v>
       </c>
       <c r="I252" t="n">
         <v>8</v>
@@ -18938,10 +18452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:36:40</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44397.52546296296</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19009,10 +18521,8 @@
           <t>4950215259</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:36:36</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44397.52541666666</v>
       </c>
       <c r="I254" t="n">
         <v>4</v>
@@ -19081,10 +18591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:36:00</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44397.525</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19152,10 +18660,8 @@
           <t>4950060175</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:35:56</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44397.5249537037</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19227,10 +18733,8 @@
           <t>4950060175</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:35:29</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44397.5246412037</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19306,10 +18810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:35:14</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44397.52446759259</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -19385,10 +18887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:35:07</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44397.52438657408</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19456,10 +18956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:34:19</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44397.52383101852</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19531,10 +19029,8 @@
           <t>4950197438</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:34:10</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44397.52372685185</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19598,10 +19094,8 @@
           <t>4950193512</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:34:00</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44397.52361111111</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19677,10 +19171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:33:52</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44397.52351851852</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19740,10 +19232,8 @@
           <t>4950192402</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:33:35</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44397.52332175926</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19811,10 +19301,8 @@
           <t>4950184833</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:33:10</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44397.52303240741</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19886,10 +19374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:32:57</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44397.52288194445</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19961,10 +19447,8 @@
           <t>4950060175</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:32:56</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44397.52287037037</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20036,10 +19520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:32:41</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44397.52269675926</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20115,10 +19597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:31:51</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44397.52211805555</v>
       </c>
       <c r="I269" t="n">
         <v>2</v>
@@ -20186,10 +19666,8 @@
           <t>4950040122</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:31:31</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44397.52188657408</v>
       </c>
       <c r="I270" t="n">
         <v>2</v>
@@ -20257,10 +19735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:31:21</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44397.52177083334</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20332,10 +19808,8 @@
           <t>4950082329</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:30:21</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44397.52107638889</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20403,10 +19877,8 @@
           <t>4950043067</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:30:14</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44397.52099537037</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20474,10 +19946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:30:02</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44397.52085648148</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20541,10 +20011,8 @@
           <t>4950166293</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:29:56</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44397.52078703704</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20616,10 +20084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:29:29</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44397.52047453704</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20695,10 +20161,8 @@
           <t>4950128298</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:28:42</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44397.51993055556</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20770,10 +20234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:28:39</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44397.51989583333</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20841,10 +20303,8 @@
           <t>4950152773</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:28:36</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44397.51986111111</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20912,10 +20372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:28:33</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44397.51982638889</v>
       </c>
       <c r="I280" t="n">
         <v>8</v>
@@ -20991,10 +20449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:28:08</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44397.51953703703</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21067,10 +20523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:27:40</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44397.51921296296</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21142,10 +20596,8 @@
           <t>4950147224</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:27:36</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44397.51916666667</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21217,10 +20669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:27:19</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44397.51896990741</v>
       </c>
       <c r="I284" t="n">
         <v>37</v>
@@ -21284,10 +20734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:26:32</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44397.51842592593</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21352,10 +20800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:26:31</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44397.51841435185</v>
       </c>
       <c r="I286" t="n">
         <v>21</v>
@@ -21431,10 +20877,8 @@
           <t>4950140456</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:26:31</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44397.51841435185</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21503,10 +20947,8 @@
           <t>4950140119</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:26:21</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44397.51829861111</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21570,10 +21012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:26:08</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44397.51814814815</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21649,10 +21089,8 @@
           <t>4950133304</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:26:06</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44397.518125</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21728,10 +21166,8 @@
           <t>4949998902</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:26:06</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44397.518125</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21799,10 +21235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:25:44</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44397.51787037037</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21878,10 +21312,8 @@
           <t>4950128298</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:25:36</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44397.51777777778</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21957,10 +21389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:25:20</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44397.51759259259</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22028,10 +21458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:25:04</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44397.51740740741</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22104,10 +21532,8 @@
           <t>4950126229</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:24:47</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44397.51721064815</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22171,10 +21597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:23:45</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44397.51649305555</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22242,10 +21666,8 @@
           <t>4950109128</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:23:33</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44397.51635416667</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22305,10 +21727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:22:55</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44397.51591435185</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22384,10 +21804,8 @@
           <t>4950107360</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:22:55</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44397.51591435185</v>
       </c>
       <c r="I300" t="n">
         <v>4</v>
@@ -22463,10 +21881,8 @@
           <t>4950104788</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:22:50</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44397.51585648148</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22534,10 +21950,8 @@
           <t>4950105750</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:22:20</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44397.51550925926</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22605,10 +22019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:22:19</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44397.51549768518</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22684,10 +22096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:21:27</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44397.51489583333</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22761,10 +22171,8 @@
           <t>4950092245</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:20:56</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44397.51453703704</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22832,10 +22240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:20:47</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44397.51443287037</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22903,10 +22309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:20:27</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44397.51420138889</v>
       </c>
       <c r="I307" t="n">
         <v>2</v>
@@ -22985,10 +22389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:20:21</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44397.51413194444</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23060,10 +22462,8 @@
           <t>4950082329</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:19:07</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44397.51327546296</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23135,10 +22535,8 @@
           <t>4950082195</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:19:03</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44397.51322916667</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23214,10 +22612,8 @@
           <t>4950076415</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:18:40</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44397.51296296297</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23293,10 +22689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:18:39</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44397.51295138889</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23364,10 +22758,8 @@
           <t>4950069625</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:17:57</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44397.51246527778</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23443,10 +22835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:17:57</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44397.51246527778</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23522,10 +22912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:17:53</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44397.51241898148</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23601,10 +22989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:17:52</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44397.5124074074</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23676,10 +23062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:17:45</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44397.51232638889</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23743,10 +23127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:17:41</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44397.51228009259</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23822,10 +23204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:16:49</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44397.51167824074</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23889,10 +23269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:16:28</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44397.51143518519</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23960,10 +23338,8 @@
           <t>4950065676</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:16:25</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44397.51140046296</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24035,10 +23411,8 @@
           <t>4950060175</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:16:06</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44397.51118055556</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -24114,10 +23488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:15:56</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44397.51106481482</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24189,10 +23561,8 @@
           <t>4950054278</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:15:52</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44397.51101851852</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24268,10 +23638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:15:14</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44397.5105787037</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24339,10 +23707,8 @@
           <t>4950055036</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:14:53</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44397.51033564815</v>
       </c>
       <c r="I326" t="n">
         <v>22</v>
@@ -24418,10 +23784,8 @@
           <t>4950044518</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:14:41</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44397.51019675926</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24489,10 +23853,8 @@
           <t>4950043067</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:14:04</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44397.50976851852</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24568,10 +23930,8 @@
           <t>4950038937</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:13:47</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44397.50957175926</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24647,10 +24007,8 @@
           <t>4950038500</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:13:37</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44397.50945601852</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24726,10 +24084,8 @@
           <t>4950033299</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:13:13</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44397.50917824074</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24801,10 +24157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:13:06</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44397.50909722222</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24876,10 +24230,8 @@
           <t>4950040122</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:12:52</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44397.50893518519</v>
       </c>
       <c r="I333" t="n">
         <v>7</v>
@@ -24951,10 +24303,8 @@
           <t>4950031881</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:12:37</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44397.50876157408</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25026,10 +24376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:11:54</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44397.50826388889</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25098,10 +24446,8 @@
           <t>4950026577</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:11:28</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44397.50796296296</v>
       </c>
       <c r="I336" t="n">
         <v>5</v>
@@ -25169,10 +24515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:11:02</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44397.50766203704</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25248,10 +24592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:11:02</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44397.50766203704</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25323,10 +24665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:10:39</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44397.50739583333</v>
       </c>
       <c r="I339" t="n">
         <v>94</v>
@@ -25391,10 +24731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:10:34</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44397.50733796296</v>
       </c>
       <c r="I340" t="n">
         <v>23</v>
@@ -25470,10 +24808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:10:21</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44397.5071875</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25549,10 +24885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:10:15</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44397.50711805555</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25620,10 +24954,8 @@
           <t>4949996940</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:09:56</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44397.50689814815</v>
       </c>
       <c r="I343" t="n">
         <v>3</v>
@@ -25695,10 +25027,8 @@
           <t>4950004595</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:09:34</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44397.50664351852</v>
       </c>
       <c r="I344" t="n">
         <v>4</v>
@@ -25770,10 +25100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:09:26</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44397.50655092593</v>
       </c>
       <c r="I345" t="n">
         <v>326</v>
@@ -25849,10 +25177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:09:22</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44397.50650462963</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25916,10 +25242,8 @@
           <t>4949973842</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:09:19</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44397.50646990741</v>
       </c>
       <c r="I347" t="n">
         <v>2</v>
@@ -25991,10 +25315,8 @@
           <t>4949973842</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:09:02</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44397.50627314814</v>
       </c>
       <c r="I348" t="n">
         <v>5</v>
@@ -26066,10 +25388,8 @@
           <t>4950010214</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:08:59</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44397.50623842593</v>
       </c>
       <c r="I349" t="n">
         <v>11</v>
@@ -26137,10 +25457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:08:37</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44397.5059837963</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -26212,10 +25530,8 @@
           <t>4949998902</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:08:29</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44397.50589120371</v>
       </c>
       <c r="I351" t="n">
         <v>18</v>
@@ -26287,10 +25603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:08:25</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44397.50584490741</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26358,10 +25672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:08:21</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44397.50579861111</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26429,10 +25741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:07:50</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44397.50543981481</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26510,10 +25820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:07:46</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44397.50539351852</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26573,10 +25881,8 @@
           <t>4949996940</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:07:43</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44397.5053587963</v>
       </c>
       <c r="I356" t="n">
         <v>12</v>
@@ -26644,10 +25950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:07:24</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44397.50513888889</v>
       </c>
       <c r="I357" t="n">
         <v>2</v>
@@ -26715,10 +26019,8 @@
           <t>4949973842</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:07:02</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44397.50488425926</v>
       </c>
       <c r="I358" t="n">
         <v>32</v>
@@ -26786,10 +26088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:07:02</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44397.50488425926</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26861,10 +26161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:07:01</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44397.50487268518</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26932,10 +26230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:07:00</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44397.50486111111</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -27003,10 +26299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:06:42</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44397.50465277778</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27070,10 +26364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:06:36</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44397.50458333334</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27149,10 +26441,8 @@
           <t>4949987252</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:06:36</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44397.50458333334</v>
       </c>
       <c r="I364" t="n">
         <v>94</v>
@@ -27217,10 +26507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:06:23</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44397.50443287037</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27284,10 +26572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:06:20</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44397.50439814815</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27347,10 +26633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:05:51</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44397.5040625</v>
       </c>
       <c r="I367" t="n">
         <v>3</v>
@@ -27418,10 +26702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:05:47</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44397.5040162037</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27497,10 +26779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:05:45</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44397.50399305556</v>
       </c>
       <c r="I369" t="n">
         <v>7</v>
@@ -27576,10 +26856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:05:31</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44397.50383101852</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27647,10 +26925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:05:18</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44397.50368055556</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27718,10 +26994,8 @@
           <t>4949973842</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:05:13</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44397.50362268519</v>
       </c>
       <c r="I372" t="n">
         <v>40</v>
@@ -27793,10 +27067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:59</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44397.50346064815</v>
       </c>
       <c r="I373" t="n">
         <v>2</v>
@@ -27860,10 +27132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:50</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44397.50335648148</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27935,10 +27205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:50</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44397.50335648148</v>
       </c>
       <c r="I375" t="n">
         <v>29</v>
@@ -28014,10 +27282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:48</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44397.50333333333</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28085,10 +27351,8 @@
           <t>4949975158</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:44</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44397.50328703703</v>
       </c>
       <c r="I377" t="n">
         <v>3</v>
@@ -28160,10 +27424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:41</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44397.50325231482</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28227,10 +27489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:36</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44397.50319444444</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28294,10 +27554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:30</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44397.503125</v>
       </c>
       <c r="I380" t="n">
         <v>2</v>
@@ -28365,10 +27623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:28</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44397.50310185185</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28440,10 +27696,8 @@
           <t>4949968171</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:19</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44397.50299768519</v>
       </c>
       <c r="I382" t="n">
         <v>6</v>
@@ -28511,10 +27765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:11</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44397.5029050926</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28582,10 +27834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:06</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44397.50284722223</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28645,10 +27895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:04:03</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44397.5028125</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28716,10 +27964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:46</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44397.50261574074</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28795,10 +28041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:43</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44397.50258101852</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28866,10 +28110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:41</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44397.50255787037</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28937,10 +28179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:39</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44397.50253472223</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29016,10 +28256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:31</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44397.50244212963</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29091,10 +28329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:29</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44397.50241898148</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29158,10 +28394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:15</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44397.50225694444</v>
       </c>
       <c r="I392" t="n">
         <v>12</v>
@@ -29237,10 +28471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:08</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44397.50217592593</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29304,10 +28536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:07</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44397.50216435185</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29375,10 +28605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:05</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44397.5021412037</v>
       </c>
       <c r="I395" t="n">
         <v>2</v>
@@ -29454,10 +28682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:03</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44397.50211805556</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29529,10 +28755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:03:00</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44397.50208333333</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29608,10 +28832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:02:53</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44397.50200231482</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29675,10 +28897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:02:38</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44397.5018287037</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29750,10 +28970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:02:36</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44397.50180555556</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29825,10 +29043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:02:11</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44397.5015162037</v>
       </c>
       <c r="I401" t="n">
         <v>3</v>
@@ -29900,10 +29116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:02:08</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44397.50148148148</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29975,10 +29189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:45</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44397.50121527778</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -30046,10 +29258,8 @@
           <t>4949951402</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:44</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44397.5012037037</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30113,10 +29323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:42</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44397.50118055556</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30192,10 +29400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:24</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44397.50097222222</v>
       </c>
       <c r="I406" t="n">
         <v>1893</v>
@@ -30271,10 +29477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:23</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44397.50096064815</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30339,10 +29543,8 @@
           <t>4949945728</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:14</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44397.50085648148</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30418,10 +29620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:13</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44397.50084490741</v>
       </c>
       <c r="I409" t="n">
         <v>144</v>
@@ -30489,10 +29689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:10</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44397.50081018519</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30568,10 +29766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:05</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44397.50075231482</v>
       </c>
       <c r="I411" t="n">
         <v>6</v>
@@ -30643,10 +29839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:01</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44397.50070601852</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30718,10 +29912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:01:01</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44397.50070601852</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30797,10 +29989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:59</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44397.50068287037</v>
       </c>
       <c r="I414" t="n">
         <v>2</v>
@@ -30868,10 +30058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:58</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44397.50067129629</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30943,10 +30131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:54</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44397.500625</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31023,10 +30209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:54</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44397.500625</v>
       </c>
       <c r="I417" t="n">
         <v>888</v>
@@ -31098,10 +30282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:54</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44397.500625</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31165,10 +30347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:52</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44397.50060185185</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -31236,10 +30416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:50</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44397.5005787037</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31315,10 +30493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:50</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44397.5005787037</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31394,10 +30570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:50</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44397.5005787037</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31469,10 +30643,8 @@
           <t>4949942698</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:50</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44397.5005787037</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31548,10 +30720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:49</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44397.50056712963</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31619,10 +30789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:49</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44397.50056712963</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31694,10 +30862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:46</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44397.50053240741</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31773,10 +30939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:45</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44397.50052083333</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31840,10 +31004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:44</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44397.50050925926</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31915,10 +31077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:43</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44397.50049768519</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31990,10 +31150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:41</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44397.50047453704</v>
       </c>
       <c r="I430" t="n">
         <v>2</v>
@@ -32069,10 +31227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:40</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44397.50046296296</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32140,10 +31296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:31</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44397.50035879629</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32211,10 +31365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:29</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44397.50033564815</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32286,10 +31438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:27</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44397.5003125</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32353,10 +31503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:22</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44397.50025462963</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32420,10 +31568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:19</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44397.50021990741</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -32499,10 +31645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:18</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44397.50020833333</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32578,10 +31722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-20 12:00:16</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44397.50018518518</v>
       </c>
       <c r="I438" t="n">
         <v>157</v>
